--- a/Lab4/absExample-lab.xlsx
+++ b/Lab4/absExample-lab.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gameuser\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gameuser\Desktop\AI-in-the-wild\Lab4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB21549F-A96A-4D14-A26A-168B807EDE3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29914B36-23CC-4526-92A3-460801AC5935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{56DC7B23-590F-4E30-B993-F1A4F72C03A3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{56DC7B23-590F-4E30-B993-F1A4F72C03A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hide" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
   <si>
     <t>B</t>
   </si>
@@ -144,6 +144,15 @@
   <si>
     <t>A Protect Behaviour</t>
   </si>
+  <si>
+    <t>VectorA</t>
+  </si>
+  <si>
+    <t>VectorR</t>
+  </si>
+  <si>
+    <t>Sum product</t>
+  </si>
 </sst>
 </file>
 
@@ -240,7 +249,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -308,6 +317,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -440,7 +450,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{58D1FDB0-1E94-473E-8CE3-F01B89FBE840}" type="CELLRANGE">
+                    <a:fld id="{A8644327-D051-4DEF-8F18-0AFAA61B73D4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -449,7 +459,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{48EAB64A-5030-4DE3-BEF7-285CFB4E8B78}" type="XVALUE">
+                    <a:fld id="{FFDEEF7F-7B1B-400C-9B90-1FEFE91DEE10}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -458,7 +468,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{7322E320-276B-4BEF-B698-A7383D005C1E}" type="YVALUE">
+                    <a:fld id="{FF128276-A620-43B5-9640-03EA2A59934F}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -492,7 +502,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{055B3C78-B200-48AC-8616-70C8E47220F9}" type="CELLRANGE">
+                    <a:fld id="{589B3175-9554-4235-BCCD-450FD9E31530}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -501,7 +511,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{203EA555-CA1E-4A5A-B5B3-5A9A0907F997}" type="XVALUE">
+                    <a:fld id="{88602510-D4B1-4D5F-AB43-9CF9B8B5BCE3}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -510,7 +520,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{70F39356-6132-451B-86F9-88D9380F8249}" type="YVALUE">
+                    <a:fld id="{8EE9D6F4-43DE-4404-8FC0-702C1BF5C0F1}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -544,7 +554,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A875088E-9DF1-4447-8E04-7E5121AFB24E}" type="CELLRANGE">
+                    <a:fld id="{3BA2A969-C7C6-4CC5-8CD3-CE71128295F5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -553,7 +563,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{818A8EE8-0963-4FB8-8125-F5F5553B5401}" type="XVALUE">
+                    <a:fld id="{48153B9F-E83D-4CC2-909B-FB34C29903EA}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -562,7 +572,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{55C752CA-C7D1-4588-B3AD-2462363DD81F}" type="YVALUE">
+                    <a:fld id="{FA951373-6A68-4FE7-BB9E-13EA053208E4}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -596,7 +606,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8C224F81-441B-45ED-A6F6-3412D8D3B5CC}" type="CELLRANGE">
+                    <a:fld id="{B7FDF904-6735-4BF2-9B42-6573C2058A0D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -605,7 +615,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{F9F12B00-4C58-4235-A9AA-6173B784DF78}" type="XVALUE">
+                    <a:fld id="{078AD6B0-9C81-4B9C-BC1F-35C12BE725D0}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -614,7 +624,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{01F7677C-BA2B-4E1C-8E7A-22D0572DC60C}" type="YVALUE">
+                    <a:fld id="{5523E244-AD69-4FD5-B286-E37BBA02D48C}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -1108,7 +1118,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6B2DB484-9EBD-4B33-8CCA-E17A2B4E9622}" type="CELLRANGE">
+                    <a:fld id="{2C4A1505-5F67-49DC-968A-BA6DD450073D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1117,7 +1127,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{0918D820-8BA4-4856-93D0-B6AA1BFAE187}" type="XVALUE">
+                    <a:fld id="{DAF1A8C8-CD99-4E78-988B-BF1F2E39D908}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -1126,7 +1136,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{AC6EEEE6-36CF-4567-889C-BD31E9DC22E2}" type="YVALUE">
+                    <a:fld id="{8FBD7C04-DBBB-40A6-B406-860F6628CAD0}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -1160,7 +1170,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{272FCC1D-4403-4557-B576-DFA98AEC6CDB}" type="CELLRANGE">
+                    <a:fld id="{07518BD9-0AAF-4276-A51D-A2223F79EF83}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1169,7 +1179,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{EEAEBDDA-A629-4F25-801E-3954254401F0}" type="XVALUE">
+                    <a:fld id="{85A09278-4828-44EC-B840-75C60D257F3A}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -1178,7 +1188,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{EBAE1DC6-3B1E-4103-8616-0F17F0613107}" type="YVALUE">
+                    <a:fld id="{0F8AAD61-A4A2-40B2-8169-37B0C579D41D}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -1212,7 +1222,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{08865958-DB18-46FC-8A76-07A7C9F0C4F3}" type="CELLRANGE">
+                    <a:fld id="{9F10A316-6701-4118-BFAE-F87C3AC33E31}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1221,7 +1231,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{E17B34D5-3866-4A59-8DA6-05252B3B2F64}" type="XVALUE">
+                    <a:fld id="{006F6E1F-B183-4849-8486-AEDF44EC3395}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -1230,7 +1240,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{2EFB3DD6-7AA0-493D-934B-33A8B38D5E2C}" type="YVALUE">
+                    <a:fld id="{75959D88-2ED4-449F-A9A8-2A289A726673}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -1264,7 +1274,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{650F3130-2CB1-4BA1-8AF4-F59C633F66D8}" type="CELLRANGE">
+                    <a:fld id="{FD95E344-1EB3-4DC3-86E8-633751436B1D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1273,7 +1283,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{292A4B88-2DAC-4BA4-99C4-2C3FBB2998F9}" type="XVALUE">
+                    <a:fld id="{C423FC33-4D9F-4799-BD3E-80D464BA41B1}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -1282,7 +1292,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{23334D51-EE7E-4EC4-94A3-397616EFFFB4}" type="YVALUE">
+                    <a:fld id="{4C4540E9-91FD-4139-BE77-417E8B2BB137}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -1316,7 +1326,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E3A4137E-EB64-4B60-A269-B0DD72D9D755}" type="CELLRANGE">
+                    <a:fld id="{996ED2EC-1236-4368-A1D6-53690F52E535}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1325,7 +1335,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{7C4932E0-4E39-4A6D-BF54-9CE4CA2EB38D}" type="XVALUE">
+                    <a:fld id="{9C4AF4DF-00E2-4B99-9BA2-90E9426DC637}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -1334,7 +1344,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{6810D966-0B00-4EA5-9A2D-B2EF0ABE17D0}" type="YVALUE">
+                    <a:fld id="{3BF0C11B-A9F5-4ACD-B3FE-8A78D6C0D53B}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -1434,7 +1444,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00">
-                  <c:v>2.7</c:v>
+                  <c:v>2.7071067811865475</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>5</c:v>
@@ -1458,7 +1468,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00">
-                  <c:v>2.7</c:v>
+                  <c:v>2.7071067811865475</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3</c:v>
@@ -3178,8 +3188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76FEE368-21E2-45D7-B375-E343DCEC543F}">
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3465,8 +3475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677D4DD6-9DB9-4330-B473-8E9FCFE6A7A8}">
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3591,29 +3601,42 @@
       <c r="I14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
+      <c r="J14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="12">
+        <f>K13-K12</f>
+        <v>3</v>
+      </c>
+      <c r="L14" s="12">
+        <f>L13-L12</f>
+        <v>3</v>
+      </c>
       <c r="M14" s="2"/>
       <c r="N14" s="20" t="s">
         <v>4</v>
       </c>
       <c r="O14" s="7">
         <f>K18</f>
-        <v>2.7</v>
+        <v>2.7071067811865475</v>
       </c>
       <c r="P14" s="7">
         <f>L18</f>
-        <v>2.7</v>
+        <v>2.7071067811865475</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J15" s="6"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="6"/>
+      <c r="J15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="13">
+        <f>SQRT(K14*K14+L14*L14)</f>
+        <v>4.2426406871192848</v>
+      </c>
+      <c r="L15" s="14"/>
       <c r="M15" s="4" t="s">
         <v>22</v>
       </c>
@@ -3634,12 +3657,18 @@
       <c r="I16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
+      <c r="J16" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16" s="14">
+        <f>K14/K15</f>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="L16" s="14">
+        <f>L14/K15</f>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="M16" s="4"/>
     </row>
     <row r="17" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I17" s="4" t="s">
@@ -3651,9 +3680,18 @@
       <c r="K17" s="3">
         <v>1</v>
       </c>
-      <c r="N17" s="9"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="16"/>
+      <c r="M17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="O17" s="6">
+        <v>2</v>
+      </c>
+      <c r="P17" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I18" s="4" t="s">
@@ -3663,20 +3701,36 @@
         <v>4</v>
       </c>
       <c r="K18" s="21">
-        <v>2.7</v>
+        <f>K12+K16*K17</f>
+        <v>2.7071067811865475</v>
       </c>
       <c r="L18" s="21">
-        <v>2.7</v>
-      </c>
-      <c r="N18" s="9"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="16"/>
+        <f>L12+L16*K17</f>
+        <v>2.7071067811865475</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O18" s="6">
+        <v>5</v>
+      </c>
+      <c r="P18" s="6">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="M19" s="1"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
+      <c r="M19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N19" s="6">
+        <f>SUMPRODUCT(O17:P17, O18:P18)</f>
+        <v>16</v>
+      </c>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
     </row>
     <row r="20" spans="9:17" x14ac:dyDescent="0.25">
       <c r="M20" s="4" t="s">
@@ -3739,6 +3793,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="d71ff2ac-62c7-44d6-abd7-1383af8796a8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009908F051F1A7FA40B6E0D78DFA896E6F" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="22aea654b46515001aa88794d6829f47">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d71ff2ac-62c7-44d6-abd7-1383af8796a8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dc07c26ce5bf35373bcca599f98562b8" ns3:_="">
     <xsd:import namespace="d71ff2ac-62c7-44d6-abd7-1383af8796a8"/>
@@ -3932,37 +4003,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="d71ff2ac-62c7-44d6-abd7-1383af8796a8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C20C216F-E735-4F5C-923D-AD37EFD24405}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9786925A-CD28-47DD-B237-268CF7A5A0E7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="d71ff2ac-62c7-44d6-abd7-1383af8796a8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3984,9 +4028,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9786925A-CD28-47DD-B237-268CF7A5A0E7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C20C216F-E735-4F5C-923D-AD37EFD24405}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d71ff2ac-62c7-44d6-abd7-1383af8796a8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Lab4/absExample-lab.xlsx
+++ b/Lab4/absExample-lab.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gameuser\Desktop\AI-in-the-wild\Lab4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\labuser\Desktop\Semester2\AI-in-the-wild\Lab4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29914B36-23CC-4526-92A3-460801AC5935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BB550C-0D77-48D5-AF55-59E26CDEB885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{56DC7B23-590F-4E30-B993-F1A4F72C03A3}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="1" xr2:uid="{56DC7B23-590F-4E30-B993-F1A4F72C03A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hide" sheetId="1" r:id="rId1"/>
@@ -34,8 +34,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
   <si>
     <t>B</t>
   </si>
@@ -145,13 +167,13 @@
     <t>A Protect Behaviour</t>
   </si>
   <si>
-    <t>VectorA</t>
+    <t>Vector AR</t>
   </si>
   <si>
-    <t>VectorR</t>
+    <t>AR</t>
   </si>
   <si>
-    <t>Sum product</t>
+    <t>Dot product</t>
   </si>
 </sst>
 </file>
@@ -450,30 +472,30 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A8644327-D051-4DEF-8F18-0AFAA61B73D4}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{6B55827D-ABE4-42FE-94D8-0870934FEE85}" type="CELLRANGE">
+                      <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:rPr lang="en-IE" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{FFDEEF7F-7B1B-400C-9B90-1FEFE91DEE10}" type="XVALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
+                    <a:fld id="{EE669A5E-1DD8-46A0-9E1F-0F1E9BDA78BE}" type="XVALUE">
+                      <a:rPr lang="en-IE" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:rPr lang="en-IE" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{FF128276-A620-43B5-9640-03EA2A59934F}" type="YVALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
+                    <a:fld id="{68F2142B-3EF4-48A7-BBD3-7F212B451A1B}" type="YVALUE">
+                      <a:rPr lang="en-IE" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
+                    <a:endParaRPr lang="en-IE" baseline="0"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -502,30 +524,30 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{589B3175-9554-4235-BCCD-450FD9E31530}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{793DB6F5-C656-4824-A9AA-D6CA7C1CC1FF}" type="CELLRANGE">
+                      <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:rPr lang="en-IE" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{88602510-D4B1-4D5F-AB43-9CF9B8B5BCE3}" type="XVALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
+                    <a:fld id="{0564CD8E-D290-4FD1-8B59-7E8EF472ECD1}" type="XVALUE">
+                      <a:rPr lang="en-IE" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:rPr lang="en-IE" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{8EE9D6F4-43DE-4404-8FC0-702C1BF5C0F1}" type="YVALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
+                    <a:fld id="{CFBCFA0B-0D9B-4057-B801-7C39F57872DC}" type="YVALUE">
+                      <a:rPr lang="en-IE" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
+                    <a:endParaRPr lang="en-IE" baseline="0"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -554,30 +576,30 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3BA2A969-C7C6-4CC5-8CD3-CE71128295F5}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{54E3E9F1-1727-4DEB-A855-6087B724D800}" type="CELLRANGE">
+                      <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:rPr lang="en-IE" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{48153B9F-E83D-4CC2-909B-FB34C29903EA}" type="XVALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
+                    <a:fld id="{ED0BB8A9-377B-40FA-9918-9E4735B60F3F}" type="XVALUE">
+                      <a:rPr lang="en-IE" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:rPr lang="en-IE" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{FA951373-6A68-4FE7-BB9E-13EA053208E4}" type="YVALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
+                    <a:fld id="{31F281EF-6835-42CF-B0C7-21625B31E69B}" type="YVALUE">
+                      <a:rPr lang="en-IE" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
+                    <a:endParaRPr lang="en-IE" baseline="0"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -606,30 +628,30 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B7FDF904-6735-4BF2-9B42-6573C2058A0D}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{9E72F803-C3BC-4E92-9830-2018A7AA36F5}" type="CELLRANGE">
+                      <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:rPr lang="en-IE" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{078AD6B0-9C81-4B9C-BC1F-35C12BE725D0}" type="XVALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
+                    <a:fld id="{B9A7385A-D25B-4BAF-9A74-C123C712C62F}" type="XVALUE">
+                      <a:rPr lang="en-IE" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:rPr lang="en-IE" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{5523E244-AD69-4FD5-B286-E37BBA02D48C}" type="YVALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
+                    <a:fld id="{ED3AD851-6C89-4E00-BC43-563420080E37}" type="YVALUE">
+                      <a:rPr lang="en-IE" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
+                    <a:endParaRPr lang="en-IE" baseline="0"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -759,13 +781,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00">
-                  <c:v>5.7071067811865479</c:v>
+                  <c:v>6.4472135954999583</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4</c:v>
@@ -780,13 +802,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00">
-                  <c:v>3.7071067811865475</c:v>
+                  <c:v>6.8944271909999157</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6</c:v>
@@ -1118,7 +1140,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2C4A1505-5F67-49DC-968A-BA6DD450073D}" type="CELLRANGE">
+                    <a:fld id="{D6D4BF92-A362-4174-ACD1-25F86B2CFCBD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1127,7 +1149,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{DAF1A8C8-CD99-4E78-988B-BF1F2E39D908}" type="XVALUE">
+                    <a:fld id="{D759D232-17EE-4D5C-A6C3-7DFEB7478AB8}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -1136,7 +1158,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{8FBD7C04-DBBB-40A6-B406-860F6628CAD0}" type="YVALUE">
+                    <a:fld id="{FEB93030-983E-4DF6-BF5B-BB5F2F3B9C5A}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -1170,7 +1192,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{07518BD9-0AAF-4276-A51D-A2223F79EF83}" type="CELLRANGE">
+                    <a:fld id="{9517D8A9-1386-4444-88B5-3CF4C4918605}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1179,7 +1201,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{85A09278-4828-44EC-B840-75C60D257F3A}" type="XVALUE">
+                    <a:fld id="{919534D2-54C6-4C3F-8397-CCA7A9983F4F}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -1188,7 +1210,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{0F8AAD61-A4A2-40B2-8169-37B0C579D41D}" type="YVALUE">
+                    <a:fld id="{72DA6AC8-F395-4D23-A307-865B90DBF951}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -1222,7 +1244,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9F10A316-6701-4118-BFAE-F87C3AC33E31}" type="CELLRANGE">
+                    <a:fld id="{D19EE1D1-565C-49DF-9741-27A30DA08C2F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1231,7 +1253,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{006F6E1F-B183-4849-8486-AEDF44EC3395}" type="XVALUE">
+                    <a:fld id="{66CB928B-0ADF-43FE-93CF-5378ACF841DE}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -1240,7 +1262,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{75959D88-2ED4-449F-A9A8-2A289A726673}" type="YVALUE">
+                    <a:fld id="{271EF465-9697-41D5-9700-3F9024EABB6D}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -1274,7 +1296,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FD95E344-1EB3-4DC3-86E8-633751436B1D}" type="CELLRANGE">
+                    <a:fld id="{902EAE45-FD7D-47F8-8480-140685B54333}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1283,7 +1305,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{C423FC33-4D9F-4799-BD3E-80D464BA41B1}" type="XVALUE">
+                    <a:fld id="{818594C0-EBBE-4837-9784-74CB89B436F4}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -1292,7 +1314,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{4C4540E9-91FD-4139-BE77-417E8B2BB137}" type="YVALUE">
+                    <a:fld id="{E4CA0BA3-8CF8-44BE-AC78-DE5A84DF3E67}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -1326,7 +1348,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{996ED2EC-1236-4368-A1D6-53690F52E535}" type="CELLRANGE">
+                    <a:fld id="{63095540-5827-409E-836C-6890B03B760A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1335,7 +1357,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{9C4AF4DF-00E2-4B99-9BA2-90E9426DC637}" type="XVALUE">
+                    <a:fld id="{E34A8BDB-76C3-4855-842E-488C7C4719C7}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -1344,7 +1366,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{3BF0C11B-A9F5-4ACD-B3FE-8A78D6C0D53B}" type="YVALUE">
+                    <a:fld id="{3EF31CAB-F63F-4CAB-8D04-DF473F189B8D}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -1441,16 +1463,16 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00">
-                  <c:v>2.7071067811865475</c:v>
+                  <c:v>2.948683298050514</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.00">
-                  <c:v>4</c:v>
+                  <c:v>5.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1462,19 +1484,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>5.316227766016838</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0.00">
-                  <c:v>2.7071067811865475</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
                 <c:pt idx="4" formatCode="0.00">
-                  <c:v>4</c:v>
+                  <c:v>6.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3189,44 +3211,44 @@
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10:L12"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="9" width="3.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="9" width="3.265625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.3984375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.3984375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="9.140625" style="1"/>
+    <col min="19" max="21" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="K7" s="3" t="s">
         <v>2</v>
       </c>
@@ -3237,7 +3259,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="I8" s="4" t="s">
         <v>12</v>
       </c>
@@ -3245,24 +3267,24 @@
         <v>1</v>
       </c>
       <c r="K8" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L8" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N8" s="20" t="s">
         <v>1</v>
       </c>
       <c r="O8" s="6">
         <f>K8</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P8" s="6">
         <f>L8</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="I9" s="4" t="s">
         <v>13</v>
       </c>
@@ -3270,24 +3292,24 @@
         <v>0</v>
       </c>
       <c r="K9" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L9" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N9" s="20" t="s">
         <v>0</v>
       </c>
       <c r="O9" s="6">
         <f>K9</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P9" s="6">
         <f>L9</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="I10" s="4" t="s">
         <v>20</v>
       </c>
@@ -3300,7 +3322,7 @@
       </c>
       <c r="L10" s="12">
         <f>L9-L8</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="20" t="s">
@@ -3308,14 +3330,14 @@
       </c>
       <c r="O10" s="7">
         <f>K14</f>
-        <v>5.7071067811865479</v>
+        <v>6.4472135954999583</v>
       </c>
       <c r="P10" s="7">
         <f>L14</f>
-        <v>3.7071067811865475</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+        <v>6.8944271909999157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="I11" s="4" t="s">
         <v>7</v>
       </c>
@@ -3324,7 +3346,7 @@
       </c>
       <c r="K11" s="13">
         <f>SQRT(K10*K10+L10*L10)</f>
-        <v>2.8284271247461903</v>
+        <v>4.4721359549995796</v>
       </c>
       <c r="L11" s="14"/>
       <c r="M11" s="4" t="s">
@@ -3343,7 +3365,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="I12" s="4" t="s">
         <v>8</v>
       </c>
@@ -3352,18 +3374,18 @@
       </c>
       <c r="K12" s="14">
         <f>K10/K11</f>
-        <v>0.70710678118654746</v>
+        <v>0.44721359549995793</v>
       </c>
       <c r="L12" s="14">
         <f>L10/K11</f>
-        <v>0.70710678118654746</v>
+        <v>0.89442719099991586</v>
       </c>
       <c r="N12" s="15"/>
       <c r="O12" s="10"/>
       <c r="P12" s="15"/>
       <c r="Q12" s="16"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="I13" s="4" t="s">
         <v>23</v>
       </c>
@@ -3379,7 +3401,7 @@
       <c r="P13" s="15"/>
       <c r="Q13" s="16"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="I14" s="4" t="s">
         <v>21</v>
       </c>
@@ -3388,30 +3410,30 @@
       </c>
       <c r="K14" s="14">
         <f>K9+K12*K13</f>
-        <v>5.7071067811865479</v>
+        <v>6.4472135954999583</v>
       </c>
       <c r="L14" s="14">
         <f>L9+L12*K13</f>
-        <v>3.7071067811865475</v>
+        <v>6.8944271909999157</v>
       </c>
       <c r="N14" s="15"/>
       <c r="O14" s="15"/>
       <c r="P14" s="15"/>
       <c r="Q14" s="16"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="N15" s="15"/>
       <c r="O15" s="10"/>
       <c r="P15" s="16"/>
       <c r="Q15" s="16"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="N16" s="9"/>
       <c r="O16" s="10"/>
       <c r="P16" s="16"/>
       <c r="Q16" s="16"/>
     </row>
-    <row r="17" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="11:17" x14ac:dyDescent="0.45">
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -3420,7 +3442,7 @@
       <c r="P17" s="10"/>
       <c r="Q17" s="16"/>
     </row>
-    <row r="18" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="11:17" x14ac:dyDescent="0.45">
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="4"/>
@@ -3429,7 +3451,7 @@
       <c r="P18" s="18"/>
       <c r="Q18" s="16"/>
     </row>
-    <row r="19" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="11:17" x14ac:dyDescent="0.45">
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -3438,7 +3460,7 @@
       <c r="P19" s="16"/>
       <c r="Q19" s="16"/>
     </row>
-    <row r="20" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="11:17" x14ac:dyDescent="0.45">
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -3447,7 +3469,7 @@
       <c r="P20" s="16"/>
       <c r="Q20" s="16"/>
     </row>
-    <row r="21" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="11:17" x14ac:dyDescent="0.45">
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -3456,11 +3478,11 @@
       <c r="P21" s="16"/>
       <c r="Q21" s="16"/>
     </row>
-    <row r="22" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="11:17" x14ac:dyDescent="0.45">
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="11:17" x14ac:dyDescent="0.45">
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
@@ -3475,68 +3497,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677D4DD6-9DB9-4330-B473-8E9FCFE6A7A8}">
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="9" width="3.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="9" width="3.265625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.3984375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="9.140625" style="1"/>
+    <col min="19" max="21" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A10" s="5"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="K11" s="3" t="s">
         <v>2</v>
       </c>
@@ -3547,7 +3569,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="I12" s="4" t="s">
         <v>12</v>
       </c>
@@ -3558,7 +3580,7 @@
         <v>2</v>
       </c>
       <c r="L12" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N12" s="20" t="s">
         <v>1</v>
@@ -3569,10 +3591,10 @@
       </c>
       <c r="P12" s="6">
         <f>L12</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="I13" s="4" t="s">
         <v>13</v>
       </c>
@@ -3580,24 +3602,24 @@
         <v>0</v>
       </c>
       <c r="K13" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L13" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N13" s="20" t="s">
         <v>0</v>
       </c>
       <c r="O13" s="6">
         <f>K13</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P13" s="6">
         <f>L13</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="I14" s="4" t="s">
         <v>20</v>
       </c>
@@ -3606,11 +3628,11 @@
       </c>
       <c r="K14" s="12">
         <f>K13-K12</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L14" s="12">
         <f>L13-L12</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="20" t="s">
@@ -3618,14 +3640,14 @@
       </c>
       <c r="O14" s="7">
         <f>K18</f>
-        <v>2.7071067811865475</v>
+        <v>2.948683298050514</v>
       </c>
       <c r="P14" s="7">
         <f>L18</f>
-        <v>2.7071067811865475</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+        <v>5.316227766016838</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="I15" s="4" t="s">
         <v>7</v>
       </c>
@@ -3634,7 +3656,7 @@
       </c>
       <c r="K15" s="13">
         <f>SQRT(K14*K14+L14*L14)</f>
-        <v>4.2426406871192848</v>
+        <v>6.324555320336759</v>
       </c>
       <c r="L15" s="14"/>
       <c r="M15" s="4" t="s">
@@ -3644,16 +3666,16 @@
         <v>14</v>
       </c>
       <c r="O15" s="3">
+        <v>6</v>
+      </c>
+      <c r="P15" s="3">
         <v>5</v>
-      </c>
-      <c r="P15" s="3">
-        <v>3</v>
       </c>
       <c r="Q15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="I16" s="4" t="s">
         <v>8</v>
       </c>
@@ -3662,15 +3684,15 @@
       </c>
       <c r="K16" s="14">
         <f>K14/K15</f>
-        <v>0.70710678118654757</v>
+        <v>0.94868329805051377</v>
       </c>
       <c r="L16" s="14">
         <f>L14/K15</f>
-        <v>0.70710678118654757</v>
+        <v>0.31622776601683794</v>
       </c>
       <c r="M16" s="4"/>
     </row>
-    <row r="17" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I17" s="4" t="s">
         <v>9</v>
       </c>
@@ -3684,16 +3706,18 @@
         <v>36</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="O17" s="6">
-        <v>2</v>
+        <f>O15-K12</f>
+        <v>4</v>
       </c>
       <c r="P17" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="9:17" x14ac:dyDescent="0.25">
+        <f>P15-L12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="9:17" x14ac:dyDescent="0.45">
       <c r="I18" s="4" t="s">
         <v>21</v>
       </c>
@@ -3702,37 +3726,29 @@
       </c>
       <c r="K18" s="21">
         <f>K12+K16*K17</f>
-        <v>2.7071067811865475</v>
+        <v>2.948683298050514</v>
       </c>
       <c r="L18" s="21">
         <f>L12+L16*K17</f>
-        <v>2.7071067811865475</v>
+        <v>5.316227766016838</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="N18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="O18" s="6">
-        <v>5</v>
-      </c>
-      <c r="P18" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="M19" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="N19" s="6">
-        <f>SUMPRODUCT(O17:P17, O18:P18)</f>
-        <v>16</v>
-      </c>
+      <c r="N18" s="6" cm="1">
+        <f t="array" ref="N18">SUMPRODUCT((O15:P15 - K12:L12), (K16:L16))</f>
+        <v>3.7947331922020551</v>
+      </c>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+    </row>
+    <row r="19" spans="9:17" x14ac:dyDescent="0.45">
+      <c r="M19" s="4"/>
+      <c r="N19" s="6"/>
       <c r="O19" s="25"/>
       <c r="P19" s="25"/>
     </row>
-    <row r="20" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="9:17" x14ac:dyDescent="0.45">
       <c r="M20" s="4" t="s">
         <v>15</v>
       </c>
@@ -3740,16 +3756,18 @@
         <v>2</v>
       </c>
       <c r="O20" s="8">
-        <v>4</v>
+        <f>K12 + (K16 * N18)</f>
+        <v>5.6</v>
       </c>
       <c r="P20" s="8">
-        <v>4</v>
+        <f>L12 + (L16 * N18)</f>
+        <v>6.2</v>
       </c>
       <c r="Q20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="9:17" x14ac:dyDescent="0.45">
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="22"/>
@@ -3759,27 +3777,27 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="9:17" x14ac:dyDescent="0.45">
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="15"/>
       <c r="N22" s="9"/>
       <c r="O22" s="10"/>
     </row>
-    <row r="23" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="9:17" x14ac:dyDescent="0.45">
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="15"/>
       <c r="N23" s="23"/>
       <c r="O23" s="15"/>
     </row>
-    <row r="24" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="9:17" x14ac:dyDescent="0.45">
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="9:17" x14ac:dyDescent="0.45">
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="N25" s="1"/>
@@ -3793,15 +3811,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_activity xmlns="d71ff2ac-62c7-44d6-abd7-1383af8796a8" xsi:nil="true"/>
@@ -3809,7 +3818,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009908F051F1A7FA40B6E0D78DFA896E6F" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="22aea654b46515001aa88794d6829f47">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d71ff2ac-62c7-44d6-abd7-1383af8796a8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dc07c26ce5bf35373bcca599f98562b8" ns3:_="">
     <xsd:import namespace="d71ff2ac-62c7-44d6-abd7-1383af8796a8"/>
@@ -4003,15 +4012,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9786925A-CD28-47DD-B237-268CF7A5A0E7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CF616F7-58E4-47F8-895E-176DBA889A00}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -4027,7 +4037,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C20C216F-E735-4F5C-923D-AD37EFD24405}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4043,4 +4053,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9786925A-CD28-47DD-B237-268CF7A5A0E7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Lab4/absExample-lab.xlsx
+++ b/Lab4/absExample-lab.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\labuser\Desktop\Semester2\AI-in-the-wild\Lab4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gameuser\Desktop\AI-in-the-wild\Lab4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BB550C-0D77-48D5-AF55-59E26CDEB885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39CA630-39F1-4D51-8542-4B7E9F35A4E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="1" xr2:uid="{56DC7B23-590F-4E30-B993-F1A4F72C03A3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{56DC7B23-590F-4E30-B993-F1A4F72C03A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hide" sheetId="1" r:id="rId1"/>
@@ -472,7 +472,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6B55827D-ABE4-42FE-94D8-0870934FEE85}" type="CELLRANGE">
+                    <a:fld id="{14C3DE45-D392-4577-A710-79E3969B38EA}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -481,7 +481,7 @@
                       <a:rPr lang="en-IE" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{EE669A5E-1DD8-46A0-9E1F-0F1E9BDA78BE}" type="XVALUE">
+                    <a:fld id="{F9A1592F-0EE2-4262-ADE3-F8B08044B7FB}" type="XVALUE">
                       <a:rPr lang="en-IE" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -490,7 +490,7 @@
                       <a:rPr lang="en-IE" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{68F2142B-3EF4-48A7-BBD3-7F212B451A1B}" type="YVALUE">
+                    <a:fld id="{EFC93E85-D863-4C1F-BB57-E0C8BC9EDFED}" type="YVALUE">
                       <a:rPr lang="en-IE" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -524,7 +524,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{793DB6F5-C656-4824-A9AA-D6CA7C1CC1FF}" type="CELLRANGE">
+                    <a:fld id="{174E3D9E-9856-46AF-A7F5-9C1B21E5A93F}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -533,7 +533,7 @@
                       <a:rPr lang="en-IE" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{0564CD8E-D290-4FD1-8B59-7E8EF472ECD1}" type="XVALUE">
+                    <a:fld id="{9172C646-3361-4A76-9C55-D997C10BA3C8}" type="XVALUE">
                       <a:rPr lang="en-IE" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -542,7 +542,7 @@
                       <a:rPr lang="en-IE" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{CFBCFA0B-0D9B-4057-B801-7C39F57872DC}" type="YVALUE">
+                    <a:fld id="{AC20F28D-490A-40B6-972A-E6D042F33502}" type="YVALUE">
                       <a:rPr lang="en-IE" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -576,7 +576,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{54E3E9F1-1727-4DEB-A855-6087B724D800}" type="CELLRANGE">
+                    <a:fld id="{129C8F8F-0EB0-442C-86B5-A80A4FFE2A55}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -585,7 +585,7 @@
                       <a:rPr lang="en-IE" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{ED0BB8A9-377B-40FA-9918-9E4735B60F3F}" type="XVALUE">
+                    <a:fld id="{E49D99A5-562D-4EB0-BC5C-4E5148A9E421}" type="XVALUE">
                       <a:rPr lang="en-IE" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -594,7 +594,7 @@
                       <a:rPr lang="en-IE" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{31F281EF-6835-42CF-B0C7-21625B31E69B}" type="YVALUE">
+                    <a:fld id="{343ABF3B-9E10-46DD-8CCD-C468CC003987}" type="YVALUE">
                       <a:rPr lang="en-IE" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -628,7 +628,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9E72F803-C3BC-4E92-9830-2018A7AA36F5}" type="CELLRANGE">
+                    <a:fld id="{179FB588-A670-435D-A060-E192CF4AE62A}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -637,7 +637,7 @@
                       <a:rPr lang="en-IE" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{B9A7385A-D25B-4BAF-9A74-C123C712C62F}" type="XVALUE">
+                    <a:fld id="{C6448AF8-240F-44BE-9220-CACDE0D92CE3}" type="XVALUE">
                       <a:rPr lang="en-IE" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -646,7 +646,7 @@
                       <a:rPr lang="en-IE" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{ED3AD851-6C89-4E00-BC43-563420080E37}" type="YVALUE">
+                    <a:fld id="{4EEC1C4E-4391-4A9D-BB50-FBD9595F4F8E}" type="YVALUE">
                       <a:rPr lang="en-IE" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -1140,7 +1140,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D6D4BF92-A362-4174-ACD1-25F86B2CFCBD}" type="CELLRANGE">
+                    <a:fld id="{81AC5BCF-AEED-4697-9CF1-BF8E8DE0C98D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1149,7 +1149,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{D759D232-17EE-4D5C-A6C3-7DFEB7478AB8}" type="XVALUE">
+                    <a:fld id="{BEAE9871-0FDE-4003-8D47-1DF5C355F320}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -1158,7 +1158,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{FEB93030-983E-4DF6-BF5B-BB5F2F3B9C5A}" type="YVALUE">
+                    <a:fld id="{AAB2DE44-5921-4330-9676-8E4A687192C7}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -1192,7 +1192,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9517D8A9-1386-4444-88B5-3CF4C4918605}" type="CELLRANGE">
+                    <a:fld id="{145BEF24-79CE-4490-82F3-4A872C5333A4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1201,7 +1201,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{919534D2-54C6-4C3F-8397-CCA7A9983F4F}" type="XVALUE">
+                    <a:fld id="{F008661C-A432-4FE5-B4F2-B3C6085C0A7B}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -1210,7 +1210,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{72DA6AC8-F395-4D23-A307-865B90DBF951}" type="YVALUE">
+                    <a:fld id="{5DEA0595-AFC0-418B-9CD1-0887F2DBE894}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -1244,7 +1244,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D19EE1D1-565C-49DF-9741-27A30DA08C2F}" type="CELLRANGE">
+                    <a:fld id="{FB985EF6-E9DA-42D9-A73A-3806C22993D6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1253,7 +1253,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{66CB928B-0ADF-43FE-93CF-5378ACF841DE}" type="XVALUE">
+                    <a:fld id="{71014DF9-5919-4B55-B3C6-379C432131C3}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -1262,7 +1262,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{271EF465-9697-41D5-9700-3F9024EABB6D}" type="YVALUE">
+                    <a:fld id="{21C6AEFE-2F16-4840-85B0-8A7ECC80552C}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -1296,7 +1296,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{902EAE45-FD7D-47F8-8480-140685B54333}" type="CELLRANGE">
+                    <a:fld id="{B3CE8E8D-B533-4EEC-999D-05AF2F06D9AF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1305,7 +1305,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{818594C0-EBBE-4837-9784-74CB89B436F4}" type="XVALUE">
+                    <a:fld id="{A032CA70-ED7F-468E-BD49-2AB88EFDEA1F}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -1314,7 +1314,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{E4CA0BA3-8CF8-44BE-AC78-DE5A84DF3E67}" type="YVALUE">
+                    <a:fld id="{87E94354-E53A-4152-B3CE-95FBA3057C74}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -1348,7 +1348,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{63095540-5827-409E-836C-6890B03B760A}" type="CELLRANGE">
+                    <a:fld id="{D2D714BC-57B0-4E6D-A95C-F7DB9CC65402}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1357,7 +1357,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{E34A8BDB-76C3-4855-842E-488C7C4719C7}" type="XVALUE">
+                    <a:fld id="{1EF64510-EC9C-4CA1-9114-F6EF0B66EFFE}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -1366,7 +1366,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{3EF31CAB-F63F-4CAB-8D04-DF473F189B8D}" type="YVALUE">
+                    <a:fld id="{C03B242B-5949-42C4-8DFF-E7157A531448}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -3214,41 +3214,41 @@
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="3.265625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.3984375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="9" width="3.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="9.1328125" style="1"/>
+    <col min="19" max="21" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K7" s="3" t="s">
         <v>2</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I8" s="4" t="s">
         <v>12</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I9" s="4" t="s">
         <v>13</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I10" s="4" t="s">
         <v>20</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>6.8944271909999157</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I11" s="4" t="s">
         <v>7</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I12" s="4" t="s">
         <v>8</v>
       </c>
@@ -3385,7 +3385,7 @@
       <c r="P12" s="15"/>
       <c r="Q12" s="16"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I13" s="4" t="s">
         <v>23</v>
       </c>
@@ -3401,7 +3401,7 @@
       <c r="P13" s="15"/>
       <c r="Q13" s="16"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I14" s="4" t="s">
         <v>21</v>
       </c>
@@ -3421,19 +3421,19 @@
       <c r="P14" s="15"/>
       <c r="Q14" s="16"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="N15" s="15"/>
       <c r="O15" s="10"/>
       <c r="P15" s="16"/>
       <c r="Q15" s="16"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="N16" s="9"/>
       <c r="O16" s="10"/>
       <c r="P16" s="16"/>
       <c r="Q16" s="16"/>
     </row>
-    <row r="17" spans="11:17" x14ac:dyDescent="0.45">
+    <row r="17" spans="11:17" x14ac:dyDescent="0.25">
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -3442,7 +3442,7 @@
       <c r="P17" s="10"/>
       <c r="Q17" s="16"/>
     </row>
-    <row r="18" spans="11:17" x14ac:dyDescent="0.45">
+    <row r="18" spans="11:17" x14ac:dyDescent="0.25">
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="4"/>
@@ -3451,7 +3451,7 @@
       <c r="P18" s="18"/>
       <c r="Q18" s="16"/>
     </row>
-    <row r="19" spans="11:17" x14ac:dyDescent="0.45">
+    <row r="19" spans="11:17" x14ac:dyDescent="0.25">
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -3460,7 +3460,7 @@
       <c r="P19" s="16"/>
       <c r="Q19" s="16"/>
     </row>
-    <row r="20" spans="11:17" x14ac:dyDescent="0.45">
+    <row r="20" spans="11:17" x14ac:dyDescent="0.25">
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -3469,7 +3469,7 @@
       <c r="P20" s="16"/>
       <c r="Q20" s="16"/>
     </row>
-    <row r="21" spans="11:17" x14ac:dyDescent="0.45">
+    <row r="21" spans="11:17" x14ac:dyDescent="0.25">
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -3478,11 +3478,11 @@
       <c r="P21" s="16"/>
       <c r="Q21" s="16"/>
     </row>
-    <row r="22" spans="11:17" x14ac:dyDescent="0.45">
+    <row r="22" spans="11:17" x14ac:dyDescent="0.25">
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="11:17" x14ac:dyDescent="0.45">
+    <row r="23" spans="11:17" x14ac:dyDescent="0.25">
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
@@ -3498,67 +3498,67 @@
   <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="3.265625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="9" width="3.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="9.1328125" style="1"/>
+    <col min="19" max="21" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K11" s="3" t="s">
         <v>2</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I12" s="4" t="s">
         <v>12</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I13" s="4" t="s">
         <v>13</v>
       </c>
@@ -3619,7 +3619,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I14" s="4" t="s">
         <v>20</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>5.316227766016838</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I15" s="4" t="s">
         <v>7</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I16" s="4" t="s">
         <v>8</v>
       </c>
@@ -3692,7 +3692,7 @@
       </c>
       <c r="M16" s="4"/>
     </row>
-    <row r="17" spans="9:17" x14ac:dyDescent="0.45">
+    <row r="17" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I17" s="4" t="s">
         <v>9</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="9:17" x14ac:dyDescent="0.45">
+    <row r="18" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I18" s="4" t="s">
         <v>21</v>
       </c>
@@ -3742,13 +3742,13 @@
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
     </row>
-    <row r="19" spans="9:17" x14ac:dyDescent="0.45">
+    <row r="19" spans="9:17" x14ac:dyDescent="0.25">
       <c r="M19" s="4"/>
       <c r="N19" s="6"/>
       <c r="O19" s="25"/>
       <c r="P19" s="25"/>
     </row>
-    <row r="20" spans="9:17" x14ac:dyDescent="0.45">
+    <row r="20" spans="9:17" x14ac:dyDescent="0.25">
       <c r="M20" s="4" t="s">
         <v>15</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="9:17" x14ac:dyDescent="0.45">
+    <row r="21" spans="9:17" x14ac:dyDescent="0.25">
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="22"/>
@@ -3777,27 +3777,27 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="9:17" x14ac:dyDescent="0.45">
+    <row r="22" spans="9:17" x14ac:dyDescent="0.25">
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="15"/>
       <c r="N22" s="9"/>
       <c r="O22" s="10"/>
     </row>
-    <row r="23" spans="9:17" x14ac:dyDescent="0.45">
+    <row r="23" spans="9:17" x14ac:dyDescent="0.25">
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="15"/>
       <c r="N23" s="23"/>
       <c r="O23" s="15"/>
     </row>
-    <row r="24" spans="9:17" x14ac:dyDescent="0.45">
+    <row r="24" spans="9:17" x14ac:dyDescent="0.25">
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="9:17" x14ac:dyDescent="0.45">
+    <row r="25" spans="9:17" x14ac:dyDescent="0.25">
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="N25" s="1"/>
@@ -3811,14 +3811,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="d71ff2ac-62c7-44d6-abd7-1383af8796a8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009908F051F1A7FA40B6E0D78DFA896E6F" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="22aea654b46515001aa88794d6829f47">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d71ff2ac-62c7-44d6-abd7-1383af8796a8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dc07c26ce5bf35373bcca599f98562b8" ns3:_="">
     <xsd:import namespace="d71ff2ac-62c7-44d6-abd7-1383af8796a8"/>
@@ -4012,6 +4004,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="d71ff2ac-62c7-44d6-abd7-1383af8796a8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4022,22 +4022,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CF616F7-58E4-47F8-895E-176DBA889A00}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="d71ff2ac-62c7-44d6-abd7-1383af8796a8"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C20C216F-E735-4F5C-923D-AD37EFD24405}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4055,6 +4039,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CF616F7-58E4-47F8-895E-176DBA889A00}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="d71ff2ac-62c7-44d6-abd7-1383af8796a8"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9786925A-CD28-47DD-B237-268CF7A5A0E7}">
   <ds:schemaRefs>

--- a/Lab4/absExample-lab.xlsx
+++ b/Lab4/absExample-lab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gameuser\Desktop\AI-in-the-wild\Lab4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39CA630-39F1-4D51-8542-4B7E9F35A4E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013213F7-30E3-48BB-911A-4CDEBC14667D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{56DC7B23-590F-4E30-B993-F1A4F72C03A3}"/>
+    <workbookView xWindow="17325" yWindow="3030" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{56DC7B23-590F-4E30-B993-F1A4F72C03A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hide" sheetId="1" r:id="rId1"/>
@@ -472,7 +472,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{14C3DE45-D392-4577-A710-79E3969B38EA}" type="CELLRANGE">
+                    <a:fld id="{6767F3ED-AD51-4EA1-BE21-DBE427C1E3F1}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -481,7 +481,7 @@
                       <a:rPr lang="en-IE" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{F9A1592F-0EE2-4262-ADE3-F8B08044B7FB}" type="XVALUE">
+                    <a:fld id="{22E94E7B-A357-45F9-B780-BF5FEC74DF1D}" type="XVALUE">
                       <a:rPr lang="en-IE" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -490,7 +490,7 @@
                       <a:rPr lang="en-IE" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{EFC93E85-D863-4C1F-BB57-E0C8BC9EDFED}" type="YVALUE">
+                    <a:fld id="{1BAF24E7-048E-48AF-A7B7-11630965340B}" type="YVALUE">
                       <a:rPr lang="en-IE" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -524,7 +524,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{174E3D9E-9856-46AF-A7F5-9C1B21E5A93F}" type="CELLRANGE">
+                    <a:fld id="{7BA298DE-B888-41E2-9CFE-EF468181C76E}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -533,7 +533,7 @@
                       <a:rPr lang="en-IE" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{9172C646-3361-4A76-9C55-D997C10BA3C8}" type="XVALUE">
+                    <a:fld id="{020A6648-1245-45D9-BB11-A1AAA93BC3D4}" type="XVALUE">
                       <a:rPr lang="en-IE" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -542,7 +542,7 @@
                       <a:rPr lang="en-IE" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{AC20F28D-490A-40B6-972A-E6D042F33502}" type="YVALUE">
+                    <a:fld id="{337E2AEA-3E90-4A24-AB61-AA68BCB32274}" type="YVALUE">
                       <a:rPr lang="en-IE" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -576,7 +576,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{129C8F8F-0EB0-442C-86B5-A80A4FFE2A55}" type="CELLRANGE">
+                    <a:fld id="{3588F683-E22E-4730-8FF3-E0A0DAB7B840}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -585,7 +585,7 @@
                       <a:rPr lang="en-IE" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{E49D99A5-562D-4EB0-BC5C-4E5148A9E421}" type="XVALUE">
+                    <a:fld id="{43263828-CF6A-4B01-8B09-91F9486C9049}" type="XVALUE">
                       <a:rPr lang="en-IE" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -594,7 +594,7 @@
                       <a:rPr lang="en-IE" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{343ABF3B-9E10-46DD-8CCD-C468CC003987}" type="YVALUE">
+                    <a:fld id="{F0B841ED-87C6-4F80-AC03-0C2567AE4537}" type="YVALUE">
                       <a:rPr lang="en-IE" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -628,7 +628,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{179FB588-A670-435D-A060-E192CF4AE62A}" type="CELLRANGE">
+                    <a:fld id="{9903877C-7156-4EA4-9DD1-7BE95A1CBB5D}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -637,7 +637,7 @@
                       <a:rPr lang="en-IE" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{C6448AF8-240F-44BE-9220-CACDE0D92CE3}" type="XVALUE">
+                    <a:fld id="{6590878B-FF81-4484-955B-A070A28C90FB}" type="XVALUE">
                       <a:rPr lang="en-IE" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -646,7 +646,7 @@
                       <a:rPr lang="en-IE" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{4EEC1C4E-4391-4A9D-BB50-FBD9595F4F8E}" type="YVALUE">
+                    <a:fld id="{10DF8F65-596C-4953-9406-E97EC35AD8D9}" type="YVALUE">
                       <a:rPr lang="en-IE" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -1140,7 +1140,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{81AC5BCF-AEED-4697-9CF1-BF8E8DE0C98D}" type="CELLRANGE">
+                    <a:fld id="{C7E1F581-4572-4883-BD18-B121E8DBF9A5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1149,7 +1149,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{BEAE9871-0FDE-4003-8D47-1DF5C355F320}" type="XVALUE">
+                    <a:fld id="{DAAC93F0-4EC1-4539-AD18-8A1241EC1FCC}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -1158,7 +1158,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{AAB2DE44-5921-4330-9676-8E4A687192C7}" type="YVALUE">
+                    <a:fld id="{C9D68CC8-D2BB-4E68-A717-02B446B99FCA}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -1192,7 +1192,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{145BEF24-79CE-4490-82F3-4A872C5333A4}" type="CELLRANGE">
+                    <a:fld id="{973DC2F4-8050-4E65-912C-C3140FA1C2B6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1201,7 +1201,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{F008661C-A432-4FE5-B4F2-B3C6085C0A7B}" type="XVALUE">
+                    <a:fld id="{1ABA6C16-8374-4EA8-B575-3093423A8975}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -1210,7 +1210,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{5DEA0595-AFC0-418B-9CD1-0887F2DBE894}" type="YVALUE">
+                    <a:fld id="{4898A68F-6A66-4BA5-B0C7-7B75D216E358}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -1244,7 +1244,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FB985EF6-E9DA-42D9-A73A-3806C22993D6}" type="CELLRANGE">
+                    <a:fld id="{B88DC2CA-029E-4C81-BCA8-4D4E3D8ECBCA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1253,7 +1253,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{71014DF9-5919-4B55-B3C6-379C432131C3}" type="XVALUE">
+                    <a:fld id="{23D6F736-899B-4621-BF13-2CAB27928CA7}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -1262,7 +1262,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{21C6AEFE-2F16-4840-85B0-8A7ECC80552C}" type="YVALUE">
+                    <a:fld id="{B067FF3A-14D0-4C83-962E-E81610BAC268}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -1296,7 +1296,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B3CE8E8D-B533-4EEC-999D-05AF2F06D9AF}" type="CELLRANGE">
+                    <a:fld id="{FB9C95EF-B693-4FEA-A751-0982093DD2E9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1305,7 +1305,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{A032CA70-ED7F-468E-BD49-2AB88EFDEA1F}" type="XVALUE">
+                    <a:fld id="{01C20B46-9267-45DB-AA39-1994DC9F0E4C}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -1314,7 +1314,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{87E94354-E53A-4152-B3CE-95FBA3057C74}" type="YVALUE">
+                    <a:fld id="{B14D6357-121B-4DCE-AEC3-4E7849D4117A}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -1348,7 +1348,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D2D714BC-57B0-4E6D-A95C-F7DB9CC65402}" type="CELLRANGE">
+                    <a:fld id="{3423AFC0-AE5C-42F3-A224-43ABA9E0A41E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1357,7 +1357,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{1EF64510-EC9C-4CA1-9114-F6EF0B66EFFE}" type="XVALUE">
+                    <a:fld id="{8A9469BB-7BC5-4968-979E-8BDF61149BCF}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -1366,7 +1366,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{C03B242B-5949-42C4-8DFF-E7157A531448}" type="YVALUE">
+                    <a:fld id="{D1056912-A2CD-46F5-822F-DD8AE91195F2}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -3497,8 +3497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677D4DD6-9DB9-4330-B473-8E9FCFE6A7A8}">
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3811,6 +3811,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="d71ff2ac-62c7-44d6-abd7-1383af8796a8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009908F051F1A7FA40B6E0D78DFA896E6F" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="22aea654b46515001aa88794d6829f47">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d71ff2ac-62c7-44d6-abd7-1383af8796a8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dc07c26ce5bf35373bcca599f98562b8" ns3:_="">
     <xsd:import namespace="d71ff2ac-62c7-44d6-abd7-1383af8796a8"/>
@@ -4004,14 +4012,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="d71ff2ac-62c7-44d6-abd7-1383af8796a8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4022,6 +4022,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CF616F7-58E4-47F8-895E-176DBA889A00}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="d71ff2ac-62c7-44d6-abd7-1383af8796a8"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C20C216F-E735-4F5C-923D-AD37EFD24405}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4039,22 +4055,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CF616F7-58E4-47F8-895E-176DBA889A00}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="d71ff2ac-62c7-44d6-abd7-1383af8796a8"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9786925A-CD28-47DD-B237-268CF7A5A0E7}">
   <ds:schemaRefs>
